--- a/Incident_Evidence_Timeline.xlsx
+++ b/Incident_Evidence_Timeline.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chocolatecoat/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29EF32C2-F742-2C4A-97FA-B5596705DE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C88E357D-5862-4643-A4D3-BC0045561D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="520" windowWidth="38400" windowHeight="21100" activeTab="2" xr2:uid="{E42ECA2D-43D8-4B19-9CA1-2125518D7D91}"/>
+    <workbookView xWindow="-38400" yWindow="500" windowWidth="38400" windowHeight="21100" activeTab="3" xr2:uid="{E42ECA2D-43D8-4B19-9CA1-2125518D7D91}"/>
   </bookViews>
   <sheets>
     <sheet name="Incident_Timeline" sheetId="1" r:id="rId1"/>
     <sheet name="Affected_Hosts" sheetId="2" r:id="rId2"/>
     <sheet name="Evidence_Sources" sheetId="4" r:id="rId3"/>
+    <sheet name="Indicators" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Timestamp (UTC)</t>
   </si>
@@ -161,6 +162,39 @@
   </si>
   <si>
     <t>Retrieved from perimeter device</t>
+  </si>
+  <si>
+    <t>Indicator</t>
+  </si>
+  <si>
+    <t>Indicator Type</t>
+  </si>
+  <si>
+    <t>8.8.8[.]8</t>
+  </si>
+  <si>
+    <t>Network</t>
+  </si>
+  <si>
+    <t>Context</t>
+  </si>
+  <si>
+    <t>Blocked at the firewall at 2022-02-04</t>
+  </si>
+  <si>
+    <t>Looks to be associated with a search engine</t>
+  </si>
+  <si>
+    <t>spartan</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>Unknown user logon on DC1</t>
+  </si>
+  <si>
+    <t>Username is not commonly used within the organization</t>
   </si>
 </sst>
 </file>
@@ -274,8 +308,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -466,26 +500,26 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB93B2F7-3969-4213-9012-094BDC55B644}" name="Table2" displayName="Table2" ref="A1:J50" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{BB93B2F7-3969-4213-9012-094BDC55B644}" name="Table2" displayName="Table2" ref="A1:J50" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:J50" xr:uid="{BB93B2F7-3969-4213-9012-094BDC55B644}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{E86FDADF-E563-4591-8498-D47782D4D4B7}" name="Hostname" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{198A050C-7DDA-40C4-8A9C-3C8F03FCE6B2}" name="Physical Location" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{D811F5C1-2EC5-4769-9C17-7201E10FB425}" name="OS" dataDxfId="9"/>
-    <tableColumn id="4" xr3:uid="{386C5578-715D-416B-80E6-099393C1B2A2}" name="Function" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{71189FC5-11AA-43FB-A52A-C7042C931851}" name="Make/Model" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{60A4F9CC-88EF-489E-AF7B-B56ED07E1414}" name="Admin/User" dataDxfId="6"/>
-    <tableColumn id="7" xr3:uid="{E2C2CFD6-AD75-4515-BDCB-D948C71BA14C}" name="IP Address" dataDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{106E0468-B1E8-407E-9188-0FF4045EBF4F}" name="Alerts?" dataDxfId="4"/>
-    <tableColumn id="9" xr3:uid="{591FB8B9-0AC1-4F52-8979-D51BB66B8805}" name="Isolated?" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{EB571044-AABD-4260-ADE0-31E017A748B1}" name="Backups?" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{E86FDADF-E563-4591-8498-D47782D4D4B7}" name="Hostname" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{198A050C-7DDA-40C4-8A9C-3C8F03FCE6B2}" name="Physical Location" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D811F5C1-2EC5-4769-9C17-7201E10FB425}" name="OS" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{386C5578-715D-416B-80E6-099393C1B2A2}" name="Function" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{71189FC5-11AA-43FB-A52A-C7042C931851}" name="Make/Model" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{60A4F9CC-88EF-489E-AF7B-B56ED07E1414}" name="Admin/User" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{E2C2CFD6-AD75-4515-BDCB-D948C71BA14C}" name="IP Address" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{106E0468-B1E8-407E-9188-0FF4045EBF4F}" name="Alerts?" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{591FB8B9-0AC1-4F52-8979-D51BB66B8805}" name="Isolated?" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{EB571044-AABD-4260-ADE0-31E017A748B1}" name="Backups?" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -773,7 +807,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -784,12 +818,12 @@
   <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="82.5" bestFit="1" customWidth="1"/>
@@ -1281,8 +1315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21FEBDC3-1DBD-4339-AFDD-946AE71BEB50}">
   <dimension ref="A1:J50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1950,8 +1984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EC19726-0708-A845-823A-16D84F6950EF}">
   <dimension ref="A1:D182"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection sqref="A1:D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3081,4 +3115,385 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{862DA297-EFCD-7441-AA80-3117DE71A204}">
+  <dimension ref="A1:D56"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.33203125" customWidth="1"/>
+    <col min="3" max="3" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="91" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+    </row>
+    <row r="5" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A6" s="9"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+    </row>
+    <row r="9" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+    </row>
+    <row r="11" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+    </row>
+    <row r="15" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+    </row>
+    <row r="16" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+    </row>
+    <row r="17" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
+    </row>
+    <row r="18" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10"/>
+    </row>
+    <row r="19" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8"/>
+    </row>
+    <row r="20" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+    </row>
+    <row r="21" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8"/>
+    </row>
+    <row r="22" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+    </row>
+    <row r="23" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+    </row>
+    <row r="25" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+    </row>
+    <row r="26" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+    </row>
+    <row r="27" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8"/>
+    </row>
+    <row r="28" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28" s="9"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+    </row>
+    <row r="29" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+    </row>
+    <row r="31" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31" s="7"/>
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+    </row>
+    <row r="32" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+    </row>
+    <row r="33" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+    </row>
+    <row r="34" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+    </row>
+    <row r="35" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+    </row>
+    <row r="36" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+    </row>
+    <row r="37" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8"/>
+    </row>
+    <row r="38" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="10"/>
+      <c r="D38" s="10"/>
+    </row>
+    <row r="39" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8"/>
+    </row>
+    <row r="40" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+    </row>
+    <row r="41" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41" s="7"/>
+      <c r="B41" s="8"/>
+      <c r="C41" s="8"/>
+      <c r="D41" s="8"/>
+    </row>
+    <row r="42" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42" s="9"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+    </row>
+    <row r="43" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="8"/>
+    </row>
+    <row r="44" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44" s="9"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="10"/>
+    </row>
+    <row r="45" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="8"/>
+      <c r="D45" s="8"/>
+    </row>
+    <row r="46" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46" s="9"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="10"/>
+      <c r="D46" s="10"/>
+    </row>
+    <row r="47" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="8"/>
+      <c r="D47" s="8"/>
+    </row>
+    <row r="48" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+    </row>
+    <row r="49" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8"/>
+      <c r="D49" s="8"/>
+    </row>
+    <row r="50" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51" s="7"/>
+      <c r="B51" s="8"/>
+      <c r="C51" s="8"/>
+      <c r="D51" s="8"/>
+    </row>
+    <row r="52" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53" s="7"/>
+      <c r="B53" s="8"/>
+      <c r="C53" s="8"/>
+      <c r="D53" s="8"/>
+    </row>
+    <row r="54" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54" s="9"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="10"/>
+      <c r="D54" s="10"/>
+    </row>
+    <row r="55" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55" s="7"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="8"/>
+      <c r="D55" s="8"/>
+    </row>
+    <row r="56" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56" s="9"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="10"/>
+      <c r="D56" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>